--- a/Models_v1.xlsx
+++ b/Models_v1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xheuce\Dropbox\CMIP6\seaice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41320BBD-ED13-425D-AECF-AA810B39FBC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33900F1-4FA3-4386-BB6D-B0D88EDA676B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{1CE17BD5-DD34-455A-BE70-149C26C95F6F}"/>
+    <workbookView xWindow="6960" yWindow="4335" windowWidth="15585" windowHeight="15435" xr2:uid="{1CE17BD5-DD34-455A-BE70-149C26C95F6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>ACCESS-CM2</t>
   </si>
@@ -50,36 +50,15 @@
     <t>CNRM-CM6-1-HR</t>
   </si>
   <si>
-    <t>CNRM-CM6-1</t>
-  </si>
-  <si>
-    <t>EC-Earth3-AerChem</t>
-  </si>
-  <si>
     <t>EC-Earth3</t>
   </si>
   <si>
-    <t>EC-Earth3-CC</t>
-  </si>
-  <si>
-    <t>EC-Earth3-Veg-LR</t>
-  </si>
-  <si>
-    <t>EC-Earth3-Veg</t>
-  </si>
-  <si>
-    <t>HadGEM3-GC31-LL</t>
-  </si>
-  <si>
     <t>IPSL-CM5A2-INCA</t>
   </si>
   <si>
     <t>MIROC6</t>
   </si>
   <si>
-    <t>MIROC-ES2H</t>
-  </si>
-  <si>
     <t>MIROC-ES2L</t>
   </si>
   <si>
@@ -90,9 +69,6 @@
   </si>
   <si>
     <t>NorESM2-LM</t>
-  </si>
-  <si>
-    <t>NorESM2-MM</t>
   </si>
   <si>
     <t>Models</t>
@@ -143,12 +119,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C051B99-9E7E-43D9-8832-C4AF488EC3E8}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:C18"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,13 +472,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -521,7 +496,7 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3">
         <v>20150101</v>
       </c>
       <c r="C3">
@@ -566,10 +541,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18500101</v>
+        <v>20150101</v>
       </c>
       <c r="C7">
-        <v>365.24220000000003</v>
+        <v>365</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -621,97 +596,9 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18500101</v>
+        <v>10101</v>
       </c>
       <c r="C12">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>20150101</v>
-      </c>
-      <c r="C13">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>18500101</v>
-      </c>
-      <c r="C14">
-        <v>365.24220000000003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>18500101</v>
-      </c>
-      <c r="C15">
-        <v>365.24220000000003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>18500101</v>
-      </c>
-      <c r="C16">
-        <v>365.24220000000003</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>18500101</v>
-      </c>
-      <c r="C17">
-        <v>365.24220000000003</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>18500101</v>
-      </c>
-      <c r="C18">
-        <v>365.24220000000003</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>10101</v>
-      </c>
-      <c r="C19">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>10101</v>
-      </c>
-      <c r="C20">
         <v>365</v>
       </c>
     </row>
